--- a/Data_frame/balancos_definitivos/UCAS3.xlsx
+++ b/Data_frame/balancos_definitivos/UCAS3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW80"/>
+  <dimension ref="A1:AZ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -830,6 +845,15 @@
       <c r="AW2" t="n">
         <v>304455.008</v>
       </c>
+      <c r="AX2" t="n">
+        <v>349180.992</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>361632</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>357748</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -981,6 +1005,15 @@
       <c r="AW3" t="n">
         <v>97038</v>
       </c>
+      <c r="AX3" t="n">
+        <v>122833</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>131762</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>105762</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1132,6 +1165,15 @@
       <c r="AW4" t="n">
         <v>29913</v>
       </c>
+      <c r="AX4" t="n">
+        <v>26100</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>32190</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>37949</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1283,6 +1325,15 @@
       <c r="AW5" t="n">
         <v>4788</v>
       </c>
+      <c r="AX5" t="n">
+        <v>33478</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34386</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1434,6 +1485,15 @@
       <c r="AW6" t="n">
         <v>24241</v>
       </c>
+      <c r="AX6" t="n">
+        <v>20163</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>24335</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>26080</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1585,6 +1645,15 @@
       <c r="AW7" t="n">
         <v>30062</v>
       </c>
+      <c r="AX7" t="n">
+        <v>27640</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>27951</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>27461</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1736,6 +1805,15 @@
       <c r="AW8" t="n">
         <v>0</v>
       </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1887,6 +1965,15 @@
       <c r="AW9" t="n">
         <v>334</v>
       </c>
+      <c r="AX9" t="n">
+        <v>6434</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>4540</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>5204</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2038,6 +2125,15 @@
       <c r="AW10" t="n">
         <v>0</v>
       </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2189,6 +2285,15 @@
       <c r="AW11" t="n">
         <v>7700</v>
       </c>
+      <c r="AX11" t="n">
+        <v>9018</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>8360</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>9068</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2340,6 +2445,15 @@
       <c r="AW12" t="n">
         <v>30307</v>
       </c>
+      <c r="AX12" t="n">
+        <v>33143</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>32248</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>32365</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2491,6 +2605,15 @@
       <c r="AW13" t="n">
         <v>0</v>
       </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2642,6 +2765,15 @@
       <c r="AW14" t="n">
         <v>0</v>
       </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2793,6 +2925,15 @@
       <c r="AW15" t="n">
         <v>3860</v>
       </c>
+      <c r="AX15" t="n">
+        <v>10195</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>10482</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>10766</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2944,6 +3085,15 @@
       <c r="AW16" t="n">
         <v>14659</v>
       </c>
+      <c r="AX16" t="n">
+        <v>13611</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>11948</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>10614</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3095,6 +3245,15 @@
       <c r="AW17" t="n">
         <v>0</v>
       </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3246,6 +3405,15 @@
       <c r="AW18" t="n">
         <v>0</v>
       </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3397,6 +3565,15 @@
       <c r="AW19" t="n">
         <v>2659</v>
       </c>
+      <c r="AX19" t="n">
+        <v>3458</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>4117</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>5458</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3548,6 +3725,15 @@
       <c r="AW20" t="n">
         <v>0</v>
       </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3699,6 +3885,15 @@
       <c r="AW21" t="n">
         <v>0</v>
       </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3850,6 +4045,15 @@
       <c r="AW22" t="n">
         <v>20</v>
       </c>
+      <c r="AX22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4001,6 +4205,15 @@
       <c r="AW23" t="n">
         <v>174971.008</v>
       </c>
+      <c r="AX23" t="n">
+        <v>188746</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>192762</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>214578</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4152,6 +4365,15 @@
       <c r="AW24" t="n">
         <v>2119</v>
       </c>
+      <c r="AX24" t="n">
+        <v>4439</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>4840</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>5023</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4303,6 +4525,15 @@
       <c r="AW25" t="n">
         <v>0</v>
       </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4454,6 +4685,15 @@
       <c r="AW26" t="n">
         <v>304455.008</v>
       </c>
+      <c r="AX26" t="n">
+        <v>349180.992</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>361632</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>357748</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4605,6 +4845,15 @@
       <c r="AW27" t="n">
         <v>91421</v>
       </c>
+      <c r="AX27" t="n">
+        <v>83281</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>94181</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>82515</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4756,6 +5005,15 @@
       <c r="AW28" t="n">
         <v>9179</v>
       </c>
+      <c r="AX28" t="n">
+        <v>5233</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>6395</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>9457</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4907,6 +5165,15 @@
       <c r="AW29" t="n">
         <v>10702</v>
       </c>
+      <c r="AX29" t="n">
+        <v>6554</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9534</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>13536</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5058,6 +5325,15 @@
       <c r="AW30" t="n">
         <v>3552</v>
       </c>
+      <c r="AX30" t="n">
+        <v>1743</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>2664</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>5688</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5209,6 +5485,15 @@
       <c r="AW31" t="n">
         <v>6209</v>
       </c>
+      <c r="AX31" t="n">
+        <v>7888</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>6867</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>5020</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5360,6 +5645,15 @@
       <c r="AW32" t="n">
         <v>0</v>
       </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5511,6 +5805,15 @@
       <c r="AW33" t="n">
         <v>0</v>
       </c>
+      <c r="AX33" t="n">
+        <v>11672</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>11672</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5662,6 +5965,15 @@
       <c r="AW34" t="n">
         <v>61663</v>
       </c>
+      <c r="AX34" t="n">
+        <v>50084</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>57049</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>48814</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5813,6 +6125,15 @@
       <c r="AW35" t="n">
         <v>116</v>
       </c>
+      <c r="AX35" t="n">
+        <v>107</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5964,6 +6285,15 @@
       <c r="AW36" t="n">
         <v>0</v>
       </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6115,6 +6445,15 @@
       <c r="AW37" t="n">
         <v>16025</v>
       </c>
+      <c r="AX37" t="n">
+        <v>75905</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>74396</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>78163</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6266,6 +6605,15 @@
       <c r="AW38" t="n">
         <v>8823</v>
       </c>
+      <c r="AX38" t="n">
+        <v>69930</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>68747</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>71645</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6417,6 +6765,15 @@
       <c r="AW39" t="n">
         <v>0</v>
       </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6568,6 +6925,15 @@
       <c r="AW40" t="n">
         <v>2102</v>
       </c>
+      <c r="AX40" t="n">
+        <v>864</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>1002</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>622</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6719,6 +7085,15 @@
       <c r="AW41" t="n">
         <v>0</v>
       </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1225</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6870,6 +7245,15 @@
       <c r="AW42" t="n">
         <v>0</v>
       </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7021,6 +7405,15 @@
       <c r="AW43" t="n">
         <v>5100</v>
       </c>
+      <c r="AX43" t="n">
+        <v>5111</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>4647</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>4671</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7172,6 +7565,15 @@
       <c r="AW44" t="n">
         <v>0</v>
       </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7323,6 +7725,15 @@
       <c r="AW45" t="n">
         <v>0</v>
       </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7474,6 +7885,15 @@
       <c r="AW46" t="n">
         <v>0</v>
       </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7625,6 +8045,15 @@
       <c r="AW47" t="n">
         <v>197008.992</v>
       </c>
+      <c r="AX47" t="n">
+        <v>189995.008</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>193055.008</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>197070</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7776,6 +8205,15 @@
       <c r="AW48" t="n">
         <v>147000</v>
       </c>
+      <c r="AX48" t="n">
+        <v>147000</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>147000</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>147000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7927,6 +8365,15 @@
       <c r="AW49" t="n">
         <v>0</v>
       </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8078,6 +8525,15 @@
       <c r="AW50" t="n">
         <v>0</v>
       </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8229,6 +8685,15 @@
       <c r="AW51" t="n">
         <v>41394</v>
       </c>
+      <c r="AX51" t="n">
+        <v>43284</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>43284</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>43284</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8380,6 +8845,15 @@
       <c r="AW52" t="n">
         <v>8658</v>
       </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>2803</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>6033</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8531,6 +9005,15 @@
       <c r="AW53" t="n">
         <v>0</v>
       </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8682,6 +9165,15 @@
       <c r="AW54" t="n">
         <v>-43</v>
       </c>
+      <c r="AX54" t="n">
+        <v>-289</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>-32</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>753</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8833,6 +9325,15 @@
       <c r="AW55" t="n">
         <v>0</v>
       </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8982,6 +9483,15 @@
         <v>0</v>
       </c>
       <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9039,6 +9549,9 @@
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9094,6 +9607,9 @@
       <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9243,6 +9759,15 @@
       <c r="AW59" t="n">
         <v>58799</v>
       </c>
+      <c r="AX59" t="n">
+        <v>58870.992</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>47093</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>56314</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9392,6 +9917,15 @@
       <c r="AW60" t="n">
         <v>-36655</v>
       </c>
+      <c r="AX60" t="n">
+        <v>-37084.008</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>-28437</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>-34043</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9541,6 +10075,15 @@
       <c r="AW61" t="n">
         <v>22144</v>
       </c>
+      <c r="AX61" t="n">
+        <v>21787</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>18656</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>22271</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9690,6 +10233,15 @@
       <c r="AW62" t="n">
         <v>-14080</v>
       </c>
+      <c r="AX62" t="n">
+        <v>-16703</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>-13657</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>-15669</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9839,6 +10391,15 @@
       <c r="AW63" t="n">
         <v>-4885</v>
       </c>
+      <c r="AX63" t="n">
+        <v>-5123</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>-3961</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>-4759</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9988,6 +10549,15 @@
       <c r="AW64" t="n">
         <v>0</v>
       </c>
+      <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10137,6 +10707,15 @@
       <c r="AW65" t="n">
         <v>1688</v>
       </c>
+      <c r="AX65" t="n">
+        <v>886</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>534</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10286,6 +10865,15 @@
       <c r="AW66" t="n">
         <v>-16</v>
       </c>
+      <c r="AX66" t="n">
+        <v>-70</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>-573</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10435,6 +11023,15 @@
       <c r="AW67" t="n">
         <v>0</v>
       </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10584,6 +11181,15 @@
       <c r="AW68" t="n">
         <v>1516</v>
       </c>
+      <c r="AX68" t="n">
+        <v>1431</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>2383</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2452</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10733,6 +11339,15 @@
       <c r="AW69" t="n">
         <v>2731</v>
       </c>
+      <c r="AX69" t="n">
+        <v>3316</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>3424</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>4313</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10881,6 +11496,15 @@
       </c>
       <c r="AW70" t="n">
         <v>-1215</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>-1885</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>-1041</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>-1861</v>
       </c>
     </row>
     <row r="71">
@@ -10937,6 +11561,9 @@
       <c r="AU71" t="inlineStr"/>
       <c r="AV71" t="inlineStr"/>
       <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
+      <c r="AZ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10992,6 +11619,9 @@
       <c r="AU72" t="inlineStr"/>
       <c r="AV72" t="inlineStr"/>
       <c r="AW72" t="inlineStr"/>
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr"/>
+      <c r="AZ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11047,6 +11677,9 @@
       <c r="AU73" t="inlineStr"/>
       <c r="AV73" t="inlineStr"/>
       <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11196,6 +11829,15 @@
       <c r="AW74" t="n">
         <v>6367</v>
       </c>
+      <c r="AX74" t="n">
+        <v>2208</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>3382</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>4688</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11345,6 +11987,15 @@
       <c r="AW75" t="n">
         <v>-1655</v>
       </c>
+      <c r="AX75" t="n">
+        <v>2306</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>-876</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>-1335</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11493,6 +12144,15 @@
       </c>
       <c r="AW76" t="n">
         <v>-791</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>297</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>-123</v>
       </c>
     </row>
     <row r="77">
@@ -11549,6 +12209,9 @@
       <c r="AU77" t="inlineStr"/>
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
+      <c r="AX77" t="inlineStr"/>
+      <c r="AY77" t="inlineStr"/>
+      <c r="AZ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11604,6 +12267,9 @@
       <c r="AU78" t="inlineStr"/>
       <c r="AV78" t="inlineStr"/>
       <c r="AW78" t="inlineStr"/>
+      <c r="AX78" t="inlineStr"/>
+      <c r="AY78" t="inlineStr"/>
+      <c r="AZ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11745,6 +12411,15 @@
       <c r="AW79" t="n">
         <v>0</v>
       </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11893,6 +12568,15 @@
       </c>
       <c r="AW80" t="n">
         <v>3921</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>6509</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>2803</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>3230</v>
       </c>
     </row>
   </sheetData>
